--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -1,64 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proyeccion" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Edwin</author>
-  </authors>
-  <commentList>
-    <comment ref="O5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Edwin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="77">
   <si>
     <t>Agenda</t>
   </si>
@@ -87,9 +49,6 @@
     <t>Paquete</t>
   </si>
   <si>
-    <t>Paquete-Servicio</t>
-  </si>
-  <si>
     <t>Cat Servicio</t>
   </si>
   <si>
@@ -138,12 +97,6 @@
     <t>Controllers / Rutes/ Filters / GET-POST-PUT-DELETE</t>
   </si>
   <si>
-    <t>Services / Guards</t>
-  </si>
-  <si>
-    <t>Views Html-JS</t>
-  </si>
-  <si>
     <t>Models</t>
   </si>
   <si>
@@ -160,13 +113,151 @@
   </si>
   <si>
     <t>Components TS</t>
+  </si>
+  <si>
+    <t>PRUEBAS</t>
+  </si>
+  <si>
+    <t>Services / Guards / Pipes / Models</t>
+  </si>
+  <si>
+    <t>AGENDA</t>
+  </si>
+  <si>
+    <t>Agenda Fechas</t>
+  </si>
+  <si>
+    <t>Estado Agenda</t>
+  </si>
+  <si>
+    <t>PAQUETE</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Paquete Servicio</t>
+  </si>
+  <si>
+    <t>MASTER FILE</t>
+  </si>
+  <si>
+    <t>master File</t>
+  </si>
+  <si>
+    <t>Master File Contenido</t>
+  </si>
+  <si>
+    <t>CATALOGOS</t>
+  </si>
+  <si>
+    <t>Lugar Cena</t>
+  </si>
+  <si>
+    <t>Lugar Ceremonia</t>
+  </si>
+  <si>
+    <t>Tipo Ceremonia</t>
+  </si>
+  <si>
+    <t>BackUp</t>
+  </si>
+  <si>
+    <t>Agencia</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Divisa</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>Dias Bloqueados</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Historial</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>SideBar</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Shared Pages</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Hotel Select</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>Correos</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>DashBoard</t>
+  </si>
+  <si>
+    <t>Views / FORMS</t>
+  </si>
+  <si>
+    <t>Mostrar paquete por IdHotel</t>
+  </si>
+  <si>
+    <t>Mostrar Lugar Cena por Id del Hotel</t>
+  </si>
+  <si>
+    <t>Mostrar Lugar Ceremonia por Id Hotel</t>
+  </si>
+  <si>
+    <t>Mostrar Backup por Id de Hotel</t>
+  </si>
+  <si>
+    <t>Seleccionar Coordiandor de boda por id de hotel</t>
+  </si>
+  <si>
+    <t>Al seleccionar Agenda porner correo default</t>
+  </si>
+  <si>
+    <t>Poner Divisa default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,21 +343,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +381,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -340,19 +424,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -371,11 +442,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,21 +641,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,12 +653,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -431,13 +663,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,18 +675,63 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="20">
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -468,6 +742,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -478,6 +754,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -493,11 +771,8 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -508,6 +783,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -518,6 +795,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -528,11 +807,32 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -543,6 +843,30 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -553,6 +877,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -563,16 +889,25 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -583,41 +918,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -626,40 +928,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC0066"/>
       <color rgb="FF660066"/>
       <color rgb="FFFF0066"/>
       <color rgb="FF003366"/>
@@ -721,7 +994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -756,7 +1029,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -933,220 +1206,247 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="2.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="33" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" style="7" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.7109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.7109375" customWidth="1"/>
+    <col min="26" max="26" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="62.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="26.25">
+      <c r="A1" s="16"/>
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-    </row>
-    <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:29" s="13" customFormat="1">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:29" ht="18.75">
+      <c r="B3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="40"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="2" customFormat="1" ht="18.75">
+      <c r="A4" s="8"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="29" t="s">
+      <c r="O4" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="27">
-        <v>100</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="R4" s="6"/>
+      <c r="S4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="17" t="s">
+      <c r="T4" s="6"/>
+      <c r="U4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="44"/>
+      <c r="Z4" s="18"/>
+      <c r="AB4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="17" t="s">
+      <c r="B5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="M5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="9"/>
+      <c r="X5" s="1"/>
+      <c r="AB5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="23"/>
-      <c r="V4" s="24"/>
-      <c r="X4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
-        <v>99</v>
-      </c>
-      <c r="C5" s="11">
-        <v>99</v>
-      </c>
-      <c r="D5" s="11">
-        <v>100</v>
-      </c>
-      <c r="E5" s="11">
-        <v>99</v>
-      </c>
-      <c r="F5" s="19">
-        <v>95</v>
-      </c>
-      <c r="G5" s="19">
-        <v>80</v>
-      </c>
-      <c r="H5" s="19">
-        <v>100</v>
-      </c>
-      <c r="J5" s="1">
-        <v>60</v>
-      </c>
-      <c r="K5" s="1">
-        <v>70</v>
-      </c>
-      <c r="L5" s="1">
-        <v>83</v>
-      </c>
-      <c r="M5" s="1">
-        <v>84</v>
-      </c>
-      <c r="O5" s="1">
-        <v>70</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="1">
-        <v>80</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="1"/>
-      <c r="X5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
+    </row>
+    <row r="6" spans="1:29" ht="15.75">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="B6" s="11">
         <v>99</v>
@@ -1155,323 +1455,1698 @@
         <v>99</v>
       </c>
       <c r="D6" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="11">
+        <v>90</v>
+      </c>
+      <c r="F6" s="15">
+        <v>90</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>100</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="M6" s="1">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>5</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="11">
+        <v>100</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="11">
+        <v>90</v>
+      </c>
+      <c r="F7" s="15">
+        <v>90</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>100</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="M7" s="1">
+        <v>60</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="11">
+        <v>100</v>
+      </c>
+      <c r="C8" s="11">
+        <v>100</v>
+      </c>
+      <c r="D8" s="11">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11">
+        <v>100</v>
+      </c>
+      <c r="F8" s="15">
+        <v>90</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>100</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="M8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="M9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.75">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>100</v>
+      </c>
+      <c r="C10" s="11">
+        <v>100</v>
+      </c>
+      <c r="D10" s="11">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11">
+        <v>100</v>
+      </c>
+      <c r="F10" s="15">
+        <v>95</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>100</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="11">
+        <v>100</v>
+      </c>
+      <c r="D11" s="11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="15">
+        <v>80</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>100</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11">
+        <v>100</v>
+      </c>
+      <c r="C12" s="11">
+        <v>100</v>
+      </c>
+      <c r="D12" s="11">
+        <v>100</v>
+      </c>
+      <c r="E12" s="11">
+        <v>90</v>
+      </c>
+      <c r="F12" s="15">
+        <v>90</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>100</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11">
+        <v>100</v>
+      </c>
+      <c r="C13" s="11">
+        <v>100</v>
+      </c>
+      <c r="D13" s="11">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11">
+        <v>90</v>
+      </c>
+      <c r="F13" s="15">
+        <v>80</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>100</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="11">
+        <v>100</v>
+      </c>
+      <c r="C15" s="11">
+        <v>100</v>
+      </c>
+      <c r="D15" s="11">
         <v>99</v>
       </c>
-      <c r="F6" s="19">
+      <c r="E15" s="11">
+        <v>90</v>
+      </c>
+      <c r="F15" s="15">
+        <v>80</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>100</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="11">
+        <v>90</v>
+      </c>
+      <c r="C16" s="11">
+        <v>90</v>
+      </c>
+      <c r="D16" s="11">
         <v>95</v>
       </c>
-      <c r="G6" s="19">
+      <c r="E16" s="11">
+        <v>90</v>
+      </c>
+      <c r="F16" s="15">
         <v>80</v>
       </c>
-      <c r="H6" s="19">
-        <v>100</v>
-      </c>
-      <c r="X6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>100</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
+      <c r="A17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="11">
+        <v>100</v>
+      </c>
+      <c r="C18" s="11">
+        <v>100</v>
+      </c>
+      <c r="D18" s="11">
+        <v>100</v>
+      </c>
+      <c r="E18" s="11">
+        <v>100</v>
+      </c>
+      <c r="F18" s="15">
+        <v>95</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>100</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="1">
+        <v>60</v>
+      </c>
+      <c r="N18" s="1">
+        <v>70</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="A19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="11">
+        <v>100</v>
+      </c>
+      <c r="C19" s="11">
+        <v>100</v>
+      </c>
+      <c r="D19" s="11">
+        <v>100</v>
+      </c>
+      <c r="E19" s="11">
+        <v>100</v>
+      </c>
+      <c r="F19" s="15">
+        <v>95</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>100</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="1">
+        <v>60</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="11">
+        <v>100</v>
+      </c>
+      <c r="C20" s="11">
+        <v>100</v>
+      </c>
+      <c r="D20" s="11">
+        <v>100</v>
+      </c>
+      <c r="E20" s="11">
+        <v>100</v>
+      </c>
+      <c r="F20" s="15">
+        <v>95</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>100</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="1">
+        <v>60</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
+      <c r="A21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="11">
+        <v>100</v>
+      </c>
+      <c r="C21" s="11">
+        <v>100</v>
+      </c>
+      <c r="D21" s="11">
+        <v>100</v>
+      </c>
+      <c r="E21" s="11">
+        <v>100</v>
+      </c>
+      <c r="F21" s="15">
+        <v>95</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>100</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="1">
+        <v>60</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
+      <c r="A22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="11">
+        <v>100</v>
+      </c>
+      <c r="C22" s="11">
+        <v>100</v>
+      </c>
+      <c r="D22" s="11">
+        <v>100</v>
+      </c>
+      <c r="E22" s="11">
+        <v>95</v>
+      </c>
+      <c r="F22" s="15">
+        <v>95</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>100</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="1">
+        <v>60</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
+      <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="11">
+        <v>100</v>
+      </c>
+      <c r="C23" s="11">
+        <v>100</v>
+      </c>
+      <c r="D23" s="11">
+        <v>100</v>
+      </c>
+      <c r="E23" s="11">
+        <v>100</v>
+      </c>
+      <c r="F23" s="15">
         <v>99</v>
       </c>
-      <c r="C7" s="11">
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>100</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="1">
+        <v>75</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="11">
+        <v>100</v>
+      </c>
+      <c r="C24" s="11">
+        <v>100</v>
+      </c>
+      <c r="D24" s="11">
+        <v>100</v>
+      </c>
+      <c r="E24" s="11">
+        <v>100</v>
+      </c>
+      <c r="F24" s="15">
         <v>99</v>
       </c>
-      <c r="D7" s="11">
-        <v>100</v>
-      </c>
-      <c r="E7" s="11">
-        <v>99</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>100</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="1">
+        <v>75</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
+      <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="11">
+        <v>100</v>
+      </c>
+      <c r="C25" s="11">
+        <v>100</v>
+      </c>
+      <c r="D25" s="11">
+        <v>100</v>
+      </c>
+      <c r="E25" s="11">
+        <v>90</v>
+      </c>
+      <c r="F25" s="15">
         <v>95</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>100</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="1">
+        <v>75</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
+      <c r="A26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
+      <c r="A27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="11">
+        <v>90</v>
+      </c>
+      <c r="C27" s="11">
+        <v>90</v>
+      </c>
+      <c r="D27" s="11">
+        <v>100</v>
+      </c>
+      <c r="E27" s="11">
         <v>80</v>
       </c>
-      <c r="H7" s="19">
-        <v>100</v>
-      </c>
-      <c r="X7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11">
-        <v>99</v>
-      </c>
-      <c r="C8" s="11">
-        <v>99</v>
-      </c>
-      <c r="D8" s="11">
-        <v>100</v>
-      </c>
-      <c r="E8" s="11">
-        <v>99</v>
-      </c>
-      <c r="F8" s="19">
-        <v>95</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="F27" s="15">
         <v>80</v>
       </c>
-      <c r="H8" s="19">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
-        <v>99</v>
-      </c>
-      <c r="C9" s="11">
-        <v>99</v>
-      </c>
-      <c r="D9" s="11">
-        <v>100</v>
-      </c>
-      <c r="E9" s="11">
-        <v>99</v>
-      </c>
-      <c r="F9" s="19">
-        <v>95</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>100</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
+      <c r="A28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="11">
+        <v>90</v>
+      </c>
+      <c r="C28" s="11">
+        <v>90</v>
+      </c>
+      <c r="D28" s="11">
+        <v>100</v>
+      </c>
+      <c r="E28" s="11">
         <v>80</v>
       </c>
-      <c r="H9" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>99</v>
-      </c>
-      <c r="C10" s="11">
-        <v>99</v>
-      </c>
-      <c r="D10" s="11">
-        <v>100</v>
-      </c>
-      <c r="E10" s="11">
-        <v>99</v>
-      </c>
-      <c r="F10" s="19">
-        <v>95</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="F28" s="15">
         <v>80</v>
       </c>
-      <c r="H10" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
-        <v>99</v>
-      </c>
-      <c r="C11" s="11">
-        <v>99</v>
-      </c>
-      <c r="D11" s="11">
-        <v>100</v>
-      </c>
-      <c r="E11" s="11">
-        <v>99</v>
-      </c>
-      <c r="F11" s="19">
-        <v>95</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>100</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
+      <c r="A29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="11">
+        <v>90</v>
+      </c>
+      <c r="C29" s="11">
+        <v>90</v>
+      </c>
+      <c r="D29" s="11">
+        <v>100</v>
+      </c>
+      <c r="E29" s="11">
         <v>80</v>
       </c>
-      <c r="H11" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>99</v>
-      </c>
-      <c r="C12" s="11">
-        <v>99</v>
-      </c>
-      <c r="D12" s="11">
-        <v>100</v>
-      </c>
-      <c r="E12" s="11">
-        <v>99</v>
-      </c>
-      <c r="F12" s="19">
-        <v>95</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="F29" s="15">
         <v>80</v>
       </c>
-      <c r="H12" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>99</v>
-      </c>
-      <c r="C13" s="11">
-        <v>99</v>
-      </c>
-      <c r="D13" s="11">
-        <v>100</v>
-      </c>
-      <c r="E13" s="11">
-        <v>99</v>
-      </c>
-      <c r="F13" s="19">
-        <v>95</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <v>100</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
+      <c r="A30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75">
+      <c r="A33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="1">
         <v>80</v>
       </c>
-      <c r="H13" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
-        <v>99</v>
-      </c>
-      <c r="C14" s="11">
-        <v>99</v>
-      </c>
-      <c r="D14" s="11">
-        <v>100</v>
-      </c>
-      <c r="E14" s="11">
-        <v>99</v>
-      </c>
-      <c r="F14" s="19">
-        <v>95</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="N33" s="1">
         <v>80</v>
       </c>
-      <c r="H14" s="19">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="X15" s="3"/>
+      <c r="O33" s="1">
+        <v>80</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75">
+      <c r="A34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
+      <c r="A35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="1">
+        <v>80</v>
+      </c>
+      <c r="N35" s="1">
+        <v>80</v>
+      </c>
+      <c r="O35" s="1">
+        <v>80</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
+      <c r="A36" s="6"/>
+      <c r="B36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
+      <c r="A37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
+      <c r="A38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" s="1">
+        <v>70</v>
+      </c>
+      <c r="N38" s="1">
+        <v>70</v>
+      </c>
+      <c r="O38" s="1">
+        <v>70</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
+      <c r="A39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
-      <formula>100</formula>
+  <conditionalFormatting sqref="B5:J40">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="between">
+      <formula>0</formula>
+      <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="greaterThan">
-      <formula>89</formula>
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="between">
+      <formula>71</formula>
+      <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="lessThan">
-      <formula>90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="between">
-      <formula>0</formula>
-      <formula>79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="between">
-      <formula>80</formula>
-      <formula>89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="between">
-      <formula>90</formula>
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="between">
+      <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="na">
-      <formula>NOT(ISERROR(SEARCH("na",O5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:R5">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="greaterThan">
-      <formula>89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="28" operator="lessThan">
-      <formula>90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
-      <formula>0</formula>
-      <formula>79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="between">
-      <formula>80</formula>
-      <formula>89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
-      <formula>90</formula>
-      <formula>99</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="na">
-      <formula>NOT(ISERROR(SEARCH("na",Q5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:H14">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="between">
-      <formula>0</formula>
-      <formula>79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
-      <formula>80</formula>
-      <formula>89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="between">
-      <formula>90</formula>
-      <formula>99</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:M5">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="between">
+  <conditionalFormatting sqref="M5:P40">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="between">
       <formula>0</formula>
-      <formula>79</formula>
+      <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="between">
-      <formula>80</formula>
-      <formula>89</formula>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="between">
+      <formula>71</formula>
+      <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="between">
-      <formula>90</formula>
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="between">
+      <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="na">
-      <formula>NOT(ISERROR(SEARCH("na",J5)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="na">
+      <formula>NOT(ISERROR(SEARCH("na",M5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S39 U5:V39">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
+      <formula>0</formula>
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
+      <formula>71</formula>
+      <formula>85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+      <formula>86</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="na">
+      <formula>NOT(ISERROR(SEARCH("na",S5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="78">
   <si>
     <t>Agenda</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Poner Divisa default</t>
+  </si>
+  <si>
+    <t>Nacionalidad usar Select MX, US</t>
   </si>
 </sst>
 </file>
@@ -666,15 +669,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,13 +693,20 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,15 +715,17 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="12">
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -763,88 +766,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1206,7 +1127,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1253,13 +1174,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1" ht="26.25">
       <c r="A1" s="16"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="14"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
@@ -1269,37 +1190,37 @@
       <c r="A2" s="17"/>
     </row>
     <row r="3" spans="1:29" ht="18.75">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="26"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="26"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="23"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="5"/>
-      <c r="U3" s="39" t="s">
+      <c r="U3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="40"/>
+      <c r="V3" s="42"/>
       <c r="W3" s="12"/>
-      <c r="X3" s="43" t="s">
+      <c r="X3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="18" t="s">
@@ -1314,65 +1235,65 @@
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" ht="18.75">
       <c r="A4" s="8"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="25" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="34" t="s">
         <v>29</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="41" t="s">
+      <c r="U4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="42" t="s">
+      <c r="V4" s="36" t="s">
         <v>19</v>
       </c>
       <c r="W4" s="10"/>
-      <c r="X4" s="44"/>
+      <c r="X4" s="38"/>
       <c r="Z4" s="18"/>
       <c r="AB4" s="20" t="s">
         <v>10</v>
@@ -2986,7 +2907,7 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -3037,53 +2958,53 @@
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:J40">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:P40">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",M5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S39 U5:V39">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",S5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3094,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:B8"/>
+  <dimension ref="B1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3146,7 +3067,13 @@
         <v>76</v>
       </c>
     </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="467" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proyeccion" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
   <si>
     <t>Agenda</t>
   </si>
@@ -254,6 +254,27 @@
   </si>
   <si>
     <t>Nacionalidad usar Select MX, US</t>
+  </si>
+  <si>
+    <t>PAQUETES</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>ODS</t>
+  </si>
+  <si>
+    <t>Servicios por Hotel</t>
+  </si>
+  <si>
+    <t>Paquete por hotel</t>
+  </si>
+  <si>
+    <t>Departamentos por hotel</t>
+  </si>
+  <si>
+    <t>Categorias por hotel</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1148,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1135,13 +1156,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1398,13 +1419,13 @@
       </c>
       <c r="K6" s="11"/>
       <c r="M6" s="1">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N6" s="1">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="O6" s="1">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -1458,7 +1479,7 @@
       </c>
       <c r="K7" s="11"/>
       <c r="M7" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>65</v>
@@ -2948,6 +2969,16 @@
       </c>
       <c r="P40" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3015,62 +3046,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="467" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="467"/>
   </bookViews>
   <sheets>
     <sheet name="Proyeccion" sheetId="3" r:id="rId1"/>
@@ -1148,7 +1148,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
@@ -3048,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="467"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547"/>
   </bookViews>
   <sheets>
     <sheet name="Proyeccion" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="88">
   <si>
     <t>Agenda</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Paquete</t>
   </si>
   <si>
-    <t>Cat Servicio</t>
-  </si>
-  <si>
     <t>Verde</t>
   </si>
   <si>
@@ -275,6 +272,18 @@
   </si>
   <si>
     <t>Categorias por hotel</t>
+  </si>
+  <si>
+    <t>Editar | departamento solo los guardados</t>
+  </si>
+  <si>
+    <t>Dep-Servicio</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Departamento</t>
   </si>
 </sst>
 </file>
@@ -646,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,6 +751,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,18 +761,13 @@
   <dxfs count="12">
     <dxf>
       <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -780,11 +787,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -797,11 +804,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -821,11 +828,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -838,11 +845,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -862,13 +869,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1148,7 +1160,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1156,13 +1168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1212,7 +1224,7 @@
     </row>
     <row r="3" spans="1:29" ht="18.75">
       <c r="B3" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -1225,7 +1237,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="5"/>
       <c r="M3" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="40"/>
       <c r="O3" s="40"/>
@@ -1251,7 +1263,7 @@
         <v>100</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" ht="18.75">
@@ -1260,130 +1272,130 @@
         <v>1</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="38"/>
       <c r="Z4" s="18"/>
       <c r="AB4" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.75">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="11"/>
       <c r="M5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="1"/>
       <c r="AB5" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.75">
@@ -1412,7 +1424,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="15">
         <v>0</v>
@@ -1440,24 +1452,24 @@
         <v>0</v>
       </c>
       <c r="AB6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="s">
         <v>12</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11">
         <v>100</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="11">
         <v>90</v>
@@ -1472,43 +1484,43 @@
         <v>100</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="11"/>
       <c r="M7" s="1">
         <v>75</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="11">
         <v>100</v>
@@ -1532,82 +1544,82 @@
         <v>100</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="11"/>
       <c r="M8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75">
       <c r="A9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="11"/>
       <c r="M9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B10" s="11">
         <v>100</v>
@@ -1631,17 +1643,17 @@
         <v>100</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="11"/>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1652,7 +1664,7 @@
     </row>
     <row r="11" spans="1:29" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B11" s="11">
         <v>100</v>
@@ -1664,40 +1676,34 @@
         <v>100</v>
       </c>
       <c r="E11" s="11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F11" s="15">
-        <v>80</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="15">
         <v>100</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="11"/>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B12" s="11">
         <v>100</v>
@@ -1709,40 +1715,36 @@
         <v>100</v>
       </c>
       <c r="E12" s="11">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F12" s="15">
         <v>90</v>
       </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
+      <c r="G12" s="15"/>
       <c r="H12" s="15">
         <v>100</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="11"/>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P12" s="45"/>
     </row>
     <row r="13" spans="1:29" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B13" s="11">
         <v>100</v>
@@ -1754,10 +1756,10 @@
         <v>100</v>
       </c>
       <c r="E13" s="11">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F13" s="15">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G13" s="15">
         <v>0</v>
@@ -1766,55 +1768,55 @@
         <v>100</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="K13" s="11"/>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="15.75">
-      <c r="A14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>66</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="11">
+        <v>100</v>
+      </c>
+      <c r="C14" s="11">
+        <v>100</v>
+      </c>
+      <c r="D14" s="11">
+        <v>100</v>
+      </c>
+      <c r="E14" s="11">
+        <v>95</v>
+      </c>
+      <c r="F14" s="15">
+        <v>90</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>100</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="11"/>
       <c r="M14" s="1">
@@ -1832,7 +1834,7 @@
     </row>
     <row r="15" spans="1:29" ht="15.75">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B15" s="11">
         <v>100</v>
@@ -1841,7 +1843,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="11">
         <v>90</v>
@@ -1856,11 +1858,12 @@
         <v>100</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
       <c r="M15" s="1">
         <v>0</v>
       </c>
@@ -1873,187 +1876,188 @@
       <c r="P15" s="1">
         <v>0</v>
       </c>
-      <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:29" ht="15.75">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="11">
+        <v>100</v>
+      </c>
+      <c r="C17" s="11">
+        <v>100</v>
+      </c>
+      <c r="D17" s="11">
+        <v>99</v>
+      </c>
+      <c r="E17" s="11">
+        <v>90</v>
+      </c>
+      <c r="F17" s="15">
+        <v>80</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>100</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="11">
+        <v>90</v>
+      </c>
+      <c r="C18" s="11">
+        <v>90</v>
+      </c>
+      <c r="D18" s="11">
+        <v>95</v>
+      </c>
+      <c r="E18" s="11">
+        <v>90</v>
+      </c>
+      <c r="F18" s="15">
+        <v>80</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>100</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15.75">
+      <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="11">
-        <v>90</v>
-      </c>
-      <c r="C16" s="11">
-        <v>90</v>
-      </c>
-      <c r="D16" s="11">
-        <v>95</v>
-      </c>
-      <c r="E16" s="11">
-        <v>90</v>
-      </c>
-      <c r="F16" s="15">
-        <v>80</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>100</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75">
-      <c r="A17" s="6" t="s">
+      <c r="B19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.75">
+      <c r="A20" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11">
-        <v>100</v>
-      </c>
-      <c r="C18" s="11">
-        <v>100</v>
-      </c>
-      <c r="D18" s="11">
-        <v>100</v>
-      </c>
-      <c r="E18" s="11">
-        <v>100</v>
-      </c>
-      <c r="F18" s="15">
-        <v>95</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>100</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="1">
-        <v>60</v>
-      </c>
-      <c r="N18" s="1">
-        <v>70</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75">
-      <c r="A19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="11">
-        <v>100</v>
-      </c>
-      <c r="C19" s="11">
-        <v>100</v>
-      </c>
-      <c r="D19" s="11">
-        <v>100</v>
-      </c>
-      <c r="E19" s="11">
-        <v>100</v>
-      </c>
-      <c r="F19" s="15">
-        <v>95</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>100</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="1">
-        <v>60</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75">
-      <c r="A20" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="B20" s="11">
         <v>100</v>
@@ -2077,16 +2081,16 @@
         <v>100</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M20" s="1">
         <v>60</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
@@ -2095,9 +2099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75">
+    <row r="21" spans="1:28" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="11">
         <v>100</v>
@@ -2121,10 +2125,10 @@
         <v>100</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" s="1">
         <v>60</v>
@@ -2139,9 +2143,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75">
+    <row r="22" spans="1:28" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="11">
         <v>100</v>
@@ -2153,7 +2157,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="11">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F22" s="15">
         <v>95</v>
@@ -2165,10 +2169,10 @@
         <v>100</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M22" s="1">
         <v>60</v>
@@ -2183,9 +2187,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75">
+    <row r="23" spans="1:28" ht="15.75">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="11">
         <v>100</v>
@@ -2200,96 +2204,96 @@
         <v>100</v>
       </c>
       <c r="F23" s="15">
+        <v>95</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>100</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="1">
+        <v>60</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15.75">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="11">
+        <v>100</v>
+      </c>
+      <c r="C24" s="11">
+        <v>100</v>
+      </c>
+      <c r="D24" s="11">
+        <v>100</v>
+      </c>
+      <c r="E24" s="11">
+        <v>95</v>
+      </c>
+      <c r="F24" s="15">
+        <v>95</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>100</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="1">
+        <v>60</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="11">
+        <v>100</v>
+      </c>
+      <c r="C25" s="11">
+        <v>100</v>
+      </c>
+      <c r="D25" s="11">
+        <v>100</v>
+      </c>
+      <c r="E25" s="11">
+        <v>100</v>
+      </c>
+      <c r="F25" s="15">
         <v>99</v>
       </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>100</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="1">
-        <v>75</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75">
-      <c r="A24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="11">
-        <v>100</v>
-      </c>
-      <c r="C24" s="11">
-        <v>100</v>
-      </c>
-      <c r="D24" s="11">
-        <v>100</v>
-      </c>
-      <c r="E24" s="11">
-        <v>100</v>
-      </c>
-      <c r="F24" s="15">
-        <v>99</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>100</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="1">
-        <v>75</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75">
-      <c r="A25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="11">
-        <v>100</v>
-      </c>
-      <c r="C25" s="11">
-        <v>100</v>
-      </c>
-      <c r="D25" s="11">
-        <v>100</v>
-      </c>
-      <c r="E25" s="11">
-        <v>90</v>
-      </c>
-      <c r="F25" s="15">
-        <v>95</v>
-      </c>
       <c r="G25" s="15">
         <v>0</v>
       </c>
@@ -2297,10 +2301,10 @@
         <v>100</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25" s="1">
         <v>75</v>
@@ -2315,141 +2319,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:28" ht="15.75">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="11">
+        <v>100</v>
+      </c>
+      <c r="C26" s="11">
+        <v>100</v>
+      </c>
+      <c r="D26" s="11">
+        <v>100</v>
+      </c>
+      <c r="E26" s="11">
+        <v>100</v>
+      </c>
+      <c r="F26" s="15">
+        <v>99</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>100</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="1">
+        <v>75</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="15.75">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="11">
+        <v>100</v>
+      </c>
+      <c r="C27" s="11">
+        <v>100</v>
+      </c>
+      <c r="D27" s="11">
+        <v>100</v>
+      </c>
+      <c r="E27" s="11">
+        <v>90</v>
+      </c>
+      <c r="F27" s="15">
+        <v>95</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>100</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="1">
+        <v>75</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="15.75">
+      <c r="A28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.75">
+      <c r="A29" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75">
-      <c r="A27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="11">
-        <v>90</v>
-      </c>
-      <c r="C27" s="11">
-        <v>90</v>
-      </c>
-      <c r="D27" s="11">
-        <v>100</v>
-      </c>
-      <c r="E27" s="11">
-        <v>80</v>
-      </c>
-      <c r="F27" s="15">
-        <v>80</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
-        <v>100</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75">
-      <c r="A28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="11">
-        <v>90</v>
-      </c>
-      <c r="C28" s="11">
-        <v>90</v>
-      </c>
-      <c r="D28" s="11">
-        <v>100</v>
-      </c>
-      <c r="E28" s="11">
-        <v>80</v>
-      </c>
-      <c r="F28" s="15">
-        <v>80</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
-      <c r="H28" s="15">
-        <v>100</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75">
-      <c r="A29" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="B29" s="11">
         <v>90</v>
@@ -2473,10 +2477,10 @@
         <v>100</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -2491,36 +2495,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75">
-      <c r="A30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>66</v>
+    <row r="30" spans="1:28" ht="15.75">
+      <c r="A30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="11">
+        <v>90</v>
+      </c>
+      <c r="C30" s="11">
+        <v>90</v>
+      </c>
+      <c r="D30" s="11">
+        <v>100</v>
+      </c>
+      <c r="E30" s="11">
+        <v>80</v>
+      </c>
+      <c r="F30" s="15">
+        <v>80</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>100</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -2535,34 +2539,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75">
-      <c r="A31" s="6"/>
-      <c r="B31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>66</v>
+    <row r="31" spans="1:28" ht="15.75">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="11">
+        <v>90</v>
+      </c>
+      <c r="C31" s="11">
+        <v>90</v>
+      </c>
+      <c r="D31" s="11">
+        <v>100</v>
+      </c>
+      <c r="E31" s="11">
+        <v>80</v>
+      </c>
+      <c r="F31" s="15">
+        <v>80</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <v>100</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -2577,36 +2583,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75">
+    <row r="32" spans="1:28" ht="15.75">
       <c r="A32" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -2622,9 +2628,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75">
-      <c r="A33" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A33" s="6"/>
       <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
@@ -2653,21 +2657,21 @@
         <v>65</v>
       </c>
       <c r="M33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75">
-      <c r="A34" s="5" t="s">
-        <v>57</v>
+      <c r="A34" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>65</v>
@@ -2711,274 +2715,362 @@
     </row>
     <row r="35" spans="1:16" ht="15.75">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M35" s="1">
+        <v>90</v>
+      </c>
+      <c r="N35" s="1">
+        <v>90</v>
+      </c>
+      <c r="O35" s="1">
+        <v>90</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
+      <c r="A36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
+      <c r="A37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37" s="1">
+        <v>90</v>
+      </c>
+      <c r="N37" s="1">
+        <v>90</v>
+      </c>
+      <c r="O37" s="1">
+        <v>90</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
+      <c r="A38" s="6"/>
+      <c r="B38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
+      <c r="A39" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75">
+      <c r="A40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="1">
+        <v>70</v>
+      </c>
+      <c r="N40" s="1">
+        <v>70</v>
+      </c>
+      <c r="O40" s="1">
+        <v>70</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75">
+      <c r="A41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" s="1">
         <v>80</v>
       </c>
-      <c r="N35" s="1">
-        <v>80</v>
-      </c>
-      <c r="O35" s="1">
-        <v>80</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.75">
-      <c r="A36" s="6"/>
-      <c r="B36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.75">
-      <c r="A37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J37" s="15" t="s">
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.75">
-      <c r="A38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M38" s="1">
-        <v>70</v>
-      </c>
-      <c r="N38" s="1">
-        <v>70</v>
-      </c>
-      <c r="O38" s="1">
-        <v>70</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.75">
-      <c r="A39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="8" t="s">
+      <c r="B42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="8" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2988,55 +3080,55 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="B3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:J40">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="between">
+  <conditionalFormatting sqref="B5:J42">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="na">
+      <formula>NOT(ISERROR(SEARCH("na",B5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="between">
+      <formula>86</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="between">
+      <formula>71</formula>
+      <formula>85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:P42">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="na">
+      <formula>NOT(ISERROR(SEARCH("na",M5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
+      <formula>86</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
+      <formula>0</formula>
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S41 U5:V41">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="na">
+      <formula>NOT(ISERROR(SEARCH("na",S5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="na">
-      <formula>NOT(ISERROR(SEARCH("na",B5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:P40">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
-      <formula>0</formula>
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
-      <formula>86</formula>
-      <formula>99</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="na">
-      <formula>NOT(ISERROR(SEARCH("na",M5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S39 U5:V39">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>0</formula>
       <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>71</formula>
-      <formula>85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>86</formula>
-      <formula>99</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="na">
-      <formula>NOT(ISERROR(SEARCH("na",S5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3049,74 +3141,77 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:4">

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -751,7 +751,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,7 +1160,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1171,10 +1171,10 @@
   <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1681,7 +1681,9 @@
       <c r="F11" s="15">
         <v>95</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
       <c r="H11" s="15">
         <v>100</v>
       </c>
@@ -1696,10 +1698,14 @@
         <v>60</v>
       </c>
       <c r="N11" s="1">
-        <v>70</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:29" ht="15.75">
       <c r="A12" s="5" t="s">
@@ -1720,7 +1726,9 @@
       <c r="F12" s="15">
         <v>90</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
       <c r="H12" s="15">
         <v>100</v>
       </c>
@@ -1740,7 +1748,9 @@
       <c r="O12" s="1">
         <v>90</v>
       </c>
-      <c r="P12" s="45"/>
+      <c r="P12" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:29" ht="15.75">
       <c r="A13" s="5" t="s">

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547"/>
   </bookViews>
   <sheets>
-    <sheet name="Proyeccion" sheetId="3" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Niveles" sheetId="5" r:id="rId1"/>
+    <sheet name="Tareas-Modulos" sheetId="3" r:id="rId2"/>
+    <sheet name="Issues" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="96">
   <si>
     <t>Agenda</t>
   </si>
@@ -112,9 +113,6 @@
     <t>Components TS</t>
   </si>
   <si>
-    <t>PRUEBAS</t>
-  </si>
-  <si>
     <t>Services / Guards / Pipes / Models</t>
   </si>
   <si>
@@ -284,13 +282,40 @@
   </si>
   <si>
     <t>Departamento</t>
+  </si>
+  <si>
+    <t>BACK END</t>
+  </si>
+  <si>
+    <t>Revision de Usuario final</t>
+  </si>
+  <si>
+    <t>Mejoras y Optimizaciones</t>
+  </si>
+  <si>
+    <t>Front | Funcionalidad</t>
+  </si>
+  <si>
+    <t>Front | Validaciones</t>
+  </si>
+  <si>
+    <t>Front | Diseño</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,8 +401,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,7 +486,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0066"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,26 +829,13 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,9 +844,51 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,9 +1021,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFCC0066"/>
       <color rgb="FF660066"/>
       <color rgb="FFFF0066"/>
+      <color rgb="FFCC0066"/>
       <color rgb="FF003366"/>
       <color rgb="FF009900"/>
       <color rgb="FFCC0000"/>
@@ -1160,7 +1295,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1168,13 +1303,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC45"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="46.5">
+      <c r="B1" s="38">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38">
+        <v>2</v>
+      </c>
+      <c r="D1" s="38">
+        <v>3</v>
+      </c>
+      <c r="E1" s="38">
+        <v>4</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="2:7" ht="21">
+      <c r="B2" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="26.25">
+      <c r="B4" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="D8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1205,55 +1416,57 @@
     <col min="29" max="29" width="62.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" ht="26.25">
+    <row r="1" spans="1:30" s="4" customFormat="1" ht="26.25">
       <c r="A1" s="16"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="14"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:29" s="13" customFormat="1">
+      <c r="S1" s="39"/>
+      <c r="AD1" s="39"/>
+    </row>
+    <row r="2" spans="1:30" s="13" customFormat="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:29" ht="18.75">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:30" ht="18.75">
+      <c r="B3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="23"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="53" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="5"/>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="42"/>
+      <c r="V3" s="41"/>
       <c r="W3" s="12"/>
-      <c r="X3" s="37" t="s">
+      <c r="X3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="18" t="s">
@@ -1266,8 +1479,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" ht="18.75">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:30" s="2" customFormat="1" ht="18.75">
+      <c r="A4" s="55" t="s">
+        <v>93</v>
+      </c>
       <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
@@ -1290,43 +1505,43 @@
         <v>13</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="30" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="54" t="s">
         <v>28</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="43" t="s">
         <v>18</v>
       </c>
       <c r="W4" s="10"/>
-      <c r="X4" s="38"/>
+      <c r="X4" s="52"/>
       <c r="Z4" s="18"/>
       <c r="AB4" s="20" t="s">
         <v>9</v>
@@ -1335,59 +1550,59 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75">
+    <row r="5" spans="1:30" ht="15.75">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="11"/>
       <c r="M5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="1"/>
@@ -1398,7 +1613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.75">
+    <row r="6" spans="1:30" ht="15.75">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1424,32 +1639,34 @@
         <v>100</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="15">
         <v>0</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="11">
+        <v>86</v>
+      </c>
       <c r="M6" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N6" s="1">
+        <v>78</v>
+      </c>
+      <c r="O6" s="1">
         <v>76</v>
       </c>
-      <c r="O6" s="1">
-        <v>77</v>
-      </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="U6" s="1">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB6" s="19" t="s">
         <v>11</v>
@@ -1458,18 +1675,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.75">
+    <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11">
         <v>100</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="11">
         <v>90</v>
@@ -1484,32 +1701,35 @@
         <v>100</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="K7" s="11">
+        <v>86</v>
+      </c>
       <c r="M7" s="1">
-        <v>75</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
+      </c>
+      <c r="N7" s="1">
+        <v>88</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" t="s">
-        <v>64</v>
-      </c>
-      <c r="V7" t="s">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="S7" s="1">
+        <v>70</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AB7" s="19" t="s">
         <v>17</v>
@@ -1518,9 +1738,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.75">
+    <row r="8" spans="1:30" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="11">
         <v>100</v>
@@ -1544,82 +1764,88 @@
         <v>100</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="M8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K8" s="11">
+        <v>86</v>
+      </c>
+      <c r="M8" s="1">
+        <v>86</v>
+      </c>
+      <c r="N8" s="1">
+        <v>85</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="P8" s="1">
+        <v>50</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15.75">
+        <v>63</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.75">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="11"/>
       <c r="M9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="15.75">
+        <v>64</v>
+      </c>
+      <c r="U9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75">
       <c r="A10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="11">
         <v>100</v>
@@ -1643,12 +1869,14 @@
         <v>100</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="K10" s="11">
+        <v>86</v>
+      </c>
       <c r="M10" s="1">
         <v>30</v>
       </c>
@@ -1661,10 +1889,13 @@
       <c r="P10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" ht="15.75">
+      <c r="U10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="11">
         <v>100</v>
@@ -1688,12 +1919,14 @@
         <v>100</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="K11" s="11">
+        <v>86</v>
+      </c>
       <c r="M11" s="1">
         <v>60</v>
       </c>
@@ -1707,9 +1940,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.75">
+    <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="11">
         <v>100</v>
@@ -1733,28 +1966,30 @@
         <v>100</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="K12" s="11">
+        <v>86</v>
+      </c>
       <c r="M12" s="1">
         <v>90</v>
       </c>
       <c r="N12" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O12" s="1">
-        <v>90</v>
-      </c>
-      <c r="P12" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="15.75">
+        <v>82</v>
+      </c>
+      <c r="P12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="11">
         <v>100</v>
@@ -1778,12 +2013,14 @@
         <v>100</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="K13" s="11">
+        <v>86</v>
+      </c>
       <c r="M13" s="1">
         <v>90</v>
       </c>
@@ -1791,15 +2028,18 @@
         <v>80</v>
       </c>
       <c r="O13" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15.75">
+        <v>63</v>
+      </c>
+      <c r="U13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.75">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="11">
         <v>100</v>
@@ -1823,26 +2063,31 @@
         <v>100</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="K14" s="11">
+        <v>86</v>
+      </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="15.75">
+        <v>48</v>
+      </c>
+      <c r="U14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -1868,55 +2113,60 @@
         <v>100</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
       </c>
-      <c r="K15" s="11"/>
+      <c r="K15" s="11">
+        <v>86</v>
+      </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="15.75">
+        <v>45</v>
+      </c>
+      <c r="U15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.75">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="11"/>
       <c r="M16" s="1">
@@ -1934,7 +2184,7 @@
     </row>
     <row r="17" spans="1:28" ht="15.75">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="11">
         <v>100</v>
@@ -1958,10 +2208,13 @@
         <v>100</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K17" s="11">
+        <v>86</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -1972,14 +2225,14 @@
       <c r="O17" s="1">
         <v>0</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="33">
         <v>0</v>
       </c>
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="15.75">
       <c r="A18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="11">
         <v>90</v>
@@ -2003,10 +2256,13 @@
         <v>100</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K18" s="11">
+        <v>86</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -2023,35 +2279,36 @@
     </row>
     <row r="19" spans="1:28" ht="15.75">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K19" s="11"/>
       <c r="M19" s="1">
         <v>0</v>
       </c>
@@ -2067,7 +2324,7 @@
     </row>
     <row r="20" spans="1:28" ht="15.75">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="11">
         <v>100</v>
@@ -2091,10 +2348,13 @@
         <v>100</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K20" s="11">
+        <v>86</v>
       </c>
       <c r="M20" s="1">
         <v>60</v>
@@ -2111,7 +2371,7 @@
     </row>
     <row r="21" spans="1:28" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11">
         <v>100</v>
@@ -2135,10 +2395,13 @@
         <v>100</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K21" s="11">
+        <v>86</v>
       </c>
       <c r="M21" s="1">
         <v>60</v>
@@ -2155,7 +2418,7 @@
     </row>
     <row r="22" spans="1:28" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="11">
         <v>100</v>
@@ -2179,10 +2442,13 @@
         <v>100</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K22" s="11">
+        <v>86</v>
       </c>
       <c r="M22" s="1">
         <v>60</v>
@@ -2193,13 +2459,13 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="15.75">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="11">
         <v>100</v>
@@ -2223,10 +2489,13 @@
         <v>100</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K23" s="11">
+        <v>86</v>
       </c>
       <c r="M23" s="1">
         <v>60</v>
@@ -2243,7 +2512,7 @@
     </row>
     <row r="24" spans="1:28" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="11">
         <v>100</v>
@@ -2267,10 +2536,13 @@
         <v>100</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K24" s="11">
+        <v>86</v>
       </c>
       <c r="M24" s="1">
         <v>60</v>
@@ -2287,7 +2559,7 @@
     </row>
     <row r="25" spans="1:28" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="11">
         <v>100</v>
@@ -2311,10 +2583,13 @@
         <v>100</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K25" s="11">
+        <v>86</v>
       </c>
       <c r="M25" s="1">
         <v>75</v>
@@ -2331,7 +2606,7 @@
     </row>
     <row r="26" spans="1:28" ht="15.75">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="11">
         <v>100</v>
@@ -2355,10 +2630,13 @@
         <v>100</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K26" s="11">
+        <v>86</v>
       </c>
       <c r="M26" s="1">
         <v>75</v>
@@ -2375,7 +2653,7 @@
     </row>
     <row r="27" spans="1:28" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="11">
         <v>100</v>
@@ -2399,10 +2677,13 @@
         <v>100</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K27" s="11">
+        <v>86</v>
       </c>
       <c r="M27" s="1">
         <v>75</v>
@@ -2419,34 +2700,34 @@
     </row>
     <row r="28" spans="1:28" ht="15.75">
       <c r="A28" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -2463,7 +2744,7 @@
     </row>
     <row r="29" spans="1:28" ht="15.75">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="11">
         <v>90</v>
@@ -2487,10 +2768,13 @@
         <v>100</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K29" s="11">
+        <v>86</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -2507,7 +2791,7 @@
     </row>
     <row r="30" spans="1:28" ht="15.75">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="11">
         <v>90</v>
@@ -2531,10 +2815,13 @@
         <v>100</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K30" s="11">
+        <v>86</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -2551,7 +2838,7 @@
     </row>
     <row r="31" spans="1:28" ht="15.75">
       <c r="A31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="11">
         <v>90</v>
@@ -2575,10 +2862,13 @@
         <v>100</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="K31" s="11">
+        <v>86</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -2595,34 +2885,34 @@
     </row>
     <row r="32" spans="1:28" ht="15.75">
       <c r="A32" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -2640,31 +2930,31 @@
     <row r="33" spans="1:16" ht="15.75">
       <c r="A33" s="6"/>
       <c r="B33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -2681,34 +2971,34 @@
     </row>
     <row r="34" spans="1:16" ht="15.75">
       <c r="A34" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -2725,34 +3015,34 @@
     </row>
     <row r="35" spans="1:16" ht="15.75">
       <c r="A35" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M35" s="1">
         <v>90</v>
@@ -2769,34 +3059,34 @@
     </row>
     <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -2813,34 +3103,34 @@
     </row>
     <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M37" s="1">
         <v>90</v>
@@ -2858,31 +3148,31 @@
     <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="6"/>
       <c r="B38" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -2899,34 +3189,34 @@
     </row>
     <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -2943,34 +3233,34 @@
     </row>
     <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M40" s="1">
         <v>70</v>
@@ -2987,43 +3277,43 @@
     </row>
     <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M41" s="1">
         <v>80</v>
       </c>
       <c r="N41" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O41" s="1">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="P41" s="1">
         <v>0</v>
@@ -3031,34 +3321,34 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -3075,12 +3365,12 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3146,12 +3436,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3163,65 +3453,65 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:4">

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Niveles" sheetId="5" r:id="rId1"/>
@@ -20,8 +20,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>edwin</author>
+  </authors>
+  <commentList>
+    <comment ref="X18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>edwin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Iniciar la interaccion con el usuario final
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="97">
   <si>
     <t>Agenda</t>
   </si>
@@ -305,28 +340,23 @@
     <t>MOD</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>Al momento de confirmar se crea el master file - puede ser en otra etapa de la reserva ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,14 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -440,14 +462,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,134 +824,150 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,7 +1374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1305,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1320,50 +1399,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="46.5">
-      <c r="B1" s="38">
+      <c r="B1" s="20">
         <v>1</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="20">
         <v>2</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="20">
         <v>3</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="20">
         <v>4</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="2:7" ht="21">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="26.25">
-      <c r="B4" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="B4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="8" spans="2:7">
       <c r="D8" s="3"/>
@@ -1381,207 +1460,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.28515625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5703125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2.7109375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2.7109375" style="7" customWidth="1"/>
-    <col min="24" max="24" width="33" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.7109375" customWidth="1"/>
-    <col min="26" max="26" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" ht="26.25">
-      <c r="A1" s="16"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:30" s="4" customFormat="1" ht="46.5">
+      <c r="A1" s="48"/>
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="S1" s="39"/>
-      <c r="AD1" s="39"/>
-    </row>
-    <row r="2" spans="1:30" s="13" customFormat="1">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:30" ht="18.75">
-      <c r="B3" s="36" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="S1" s="21"/>
+      <c r="U1" s="32"/>
+      <c r="AD1" s="21"/>
+    </row>
+    <row r="2" spans="1:30" s="10" customFormat="1">
+      <c r="A2" s="49"/>
+      <c r="U2" s="33"/>
+    </row>
+    <row r="3" spans="1:30" ht="26.25">
+      <c r="B3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="23"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="18"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="41"/>
+      <c r="U3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="51" t="s">
+      <c r="V3" s="43"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="15">
         <v>100</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" ht="18.75">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:30" s="34" customFormat="1" ht="18.75">
+      <c r="A4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="54" t="s">
+      <c r="Q4" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="50"/>
+      <c r="S4" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="42" t="s">
+      <c r="T4" s="50"/>
+      <c r="U4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="52"/>
-      <c r="Z4" s="18"/>
-      <c r="AB4" s="20" t="s">
+      <c r="W4" s="62"/>
+      <c r="X4" s="63"/>
+      <c r="Z4" s="13"/>
+      <c r="AB4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AC4" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75">
+    <row r="5" spans="1:30">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="9"/>
       <c r="M5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1598,53 +1684,53 @@
       <c r="S5" t="s">
         <v>64</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="V5" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="9"/>
+      <c r="W5" s="8"/>
       <c r="X5" s="1"/>
-      <c r="AB5" s="19" t="s">
+      <c r="AB5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AC5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75">
+    <row r="6" spans="1:30">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>99</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>99</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>99</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>90</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>90</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>100</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>100</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
         <v>86</v>
       </c>
       <c r="M6" s="1">
@@ -1668,45 +1754,45 @@
       <c r="V6" s="1">
         <v>10</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AC6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.75">
+    <row r="7" spans="1:30">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="11">
-        <v>100</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="9">
+        <v>100</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="9">
         <v>90</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>90</v>
       </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>100</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>100</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="9">
         <v>86</v>
       </c>
       <c r="M7" s="1">
@@ -1724,52 +1810,52 @@
       <c r="S7" s="1">
         <v>70</v>
       </c>
-      <c r="T7" s="9"/>
+      <c r="T7" s="8"/>
       <c r="U7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="19" t="s">
+      <c r="AB7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AC7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.75">
+    <row r="8" spans="1:30">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="11">
-        <v>100</v>
-      </c>
-      <c r="C8" s="11">
-        <v>100</v>
-      </c>
-      <c r="D8" s="11">
-        <v>100</v>
-      </c>
-      <c r="E8" s="11">
-        <v>100</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="B8" s="9">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9">
+        <v>100</v>
+      </c>
+      <c r="D8" s="9">
+        <v>100</v>
+      </c>
+      <c r="E8" s="9">
+        <v>100</v>
+      </c>
+      <c r="F8" s="12">
         <v>90</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>100</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>100</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="9">
         <v>86</v>
       </c>
       <c r="M8" s="1">
@@ -1787,7 +1873,7 @@
       <c r="S8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="9"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1795,38 +1881,38 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.75">
+    <row r="9" spans="1:30">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="11"/>
+      <c r="B9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="9"/>
       <c r="M9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1839,42 +1925,42 @@
       <c r="P9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75">
+    <row r="10" spans="1:30">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="11">
-        <v>100</v>
-      </c>
-      <c r="C10" s="11">
-        <v>100</v>
-      </c>
-      <c r="D10" s="11">
-        <v>100</v>
-      </c>
-      <c r="E10" s="11">
-        <v>100</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="B10" s="9">
+        <v>100</v>
+      </c>
+      <c r="C10" s="9">
+        <v>100</v>
+      </c>
+      <c r="D10" s="9">
+        <v>100</v>
+      </c>
+      <c r="E10" s="9">
+        <v>100</v>
+      </c>
+      <c r="F10" s="12">
         <v>95</v>
       </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>100</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>100</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="9">
         <v>86</v>
       </c>
       <c r="M10" s="1">
@@ -1889,42 +1975,42 @@
       <c r="P10" s="1">
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75">
+    <row r="11" spans="1:30">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="11">
-        <v>100</v>
-      </c>
-      <c r="C11" s="11">
-        <v>100</v>
-      </c>
-      <c r="D11" s="11">
-        <v>100</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="B11" s="9">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9">
+        <v>100</v>
+      </c>
+      <c r="D11" s="9">
+        <v>100</v>
+      </c>
+      <c r="E11" s="9">
         <v>95</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>95</v>
       </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>100</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>100</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="9">
         <v>86</v>
       </c>
       <c r="M11" s="1">
@@ -1940,38 +2026,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.75">
+    <row r="12" spans="1:30">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="11">
-        <v>100</v>
-      </c>
-      <c r="C12" s="11">
-        <v>100</v>
-      </c>
-      <c r="D12" s="11">
-        <v>100</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="B12" s="9">
+        <v>100</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="9">
+        <v>100</v>
+      </c>
+      <c r="E12" s="9">
         <v>95</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>90</v>
       </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>100</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>100</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="9">
         <v>86</v>
       </c>
       <c r="M12" s="1">
@@ -1983,42 +2069,42 @@
       <c r="O12" s="1">
         <v>82</v>
       </c>
-      <c r="P12" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15.75">
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="11">
-        <v>100</v>
-      </c>
-      <c r="C13" s="11">
-        <v>100</v>
-      </c>
-      <c r="D13" s="11">
-        <v>100</v>
-      </c>
-      <c r="E13" s="11">
-        <v>100</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="B13" s="9">
+        <v>100</v>
+      </c>
+      <c r="C13" s="9">
+        <v>100</v>
+      </c>
+      <c r="D13" s="9">
+        <v>100</v>
+      </c>
+      <c r="E13" s="9">
+        <v>100</v>
+      </c>
+      <c r="F13" s="12">
         <v>85</v>
       </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>100</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>100</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="9">
         <v>86</v>
       </c>
       <c r="M13" s="1">
@@ -2033,42 +2119,42 @@
       <c r="P13" s="1">
         <v>63</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.75">
+    <row r="14" spans="1:30">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="11">
-        <v>100</v>
-      </c>
-      <c r="C14" s="11">
-        <v>100</v>
-      </c>
-      <c r="D14" s="11">
-        <v>100</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="B14" s="9">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9">
+        <v>100</v>
+      </c>
+      <c r="E14" s="9">
         <v>95</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="12">
         <v>90</v>
       </c>
-      <c r="G14" s="15">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>100</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>100</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="9">
         <v>86</v>
       </c>
       <c r="M14" s="1">
@@ -2083,42 +2169,42 @@
       <c r="P14" s="1">
         <v>48</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.75">
+    <row r="15" spans="1:30">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="11">
-        <v>100</v>
-      </c>
-      <c r="C15" s="11">
-        <v>100</v>
-      </c>
-      <c r="D15" s="11">
-        <v>100</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="B15" s="9">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9">
+        <v>100</v>
+      </c>
+      <c r="D15" s="9">
+        <v>100</v>
+      </c>
+      <c r="E15" s="9">
         <v>90</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="12">
         <v>80</v>
       </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>100</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>100</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
         <v>86</v>
       </c>
       <c r="M15" s="1">
@@ -2133,42 +2219,42 @@
       <c r="P15" s="1">
         <v>45</v>
       </c>
-      <c r="U15">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="15.75">
+      <c r="U15" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="11"/>
+      <c r="B16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="9"/>
       <c r="M16" s="1">
         <v>0</v>
       </c>
@@ -2181,39 +2267,40 @@
       <c r="P16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="15.75">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="11">
-        <v>100</v>
-      </c>
-      <c r="C17" s="11">
-        <v>100</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="B17" s="9">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9">
+        <v>100</v>
+      </c>
+      <c r="D17" s="9">
         <v>99</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>90</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="12">
         <v>80</v>
       </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>100</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>100</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="9">
         <v>86</v>
       </c>
       <c r="M17" s="1">
@@ -2225,43 +2312,43 @@
       <c r="O17" s="1">
         <v>0</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="19">
         <v>0</v>
       </c>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75">
+    <row r="18" spans="1:28">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>90</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>90</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>95</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>90</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="12">
         <v>80</v>
       </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>100</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="11">
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>100</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="9">
         <v>86</v>
       </c>
       <c r="M18" s="1">
@@ -2276,39 +2363,40 @@
       <c r="P18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="15.75">
+      <c r="X18" s="31"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="11"/>
+      <c r="B19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="9"/>
       <c r="M19" s="1">
         <v>0</v>
       </c>
@@ -2322,38 +2410,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75">
+    <row r="20" spans="1:28">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="11">
-        <v>100</v>
-      </c>
-      <c r="C20" s="11">
-        <v>100</v>
-      </c>
-      <c r="D20" s="11">
-        <v>100</v>
-      </c>
-      <c r="E20" s="11">
-        <v>100</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="B20" s="9">
+        <v>100</v>
+      </c>
+      <c r="C20" s="9">
+        <v>100</v>
+      </c>
+      <c r="D20" s="9">
+        <v>100</v>
+      </c>
+      <c r="E20" s="9">
+        <v>100</v>
+      </c>
+      <c r="F20" s="12">
         <v>95</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>100</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="11">
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>100</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="9">
         <v>86</v>
       </c>
       <c r="M20" s="1">
@@ -2369,38 +2457,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75">
+    <row r="21" spans="1:28">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11">
-        <v>100</v>
-      </c>
-      <c r="C21" s="11">
-        <v>100</v>
-      </c>
-      <c r="D21" s="11">
-        <v>100</v>
-      </c>
-      <c r="E21" s="11">
-        <v>100</v>
-      </c>
-      <c r="F21" s="15">
+      <c r="B21" s="9">
+        <v>100</v>
+      </c>
+      <c r="C21" s="9">
+        <v>100</v>
+      </c>
+      <c r="D21" s="9">
+        <v>100</v>
+      </c>
+      <c r="E21" s="9">
+        <v>100</v>
+      </c>
+      <c r="F21" s="12">
         <v>95</v>
       </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>100</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="11">
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>100</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="9">
         <v>86</v>
       </c>
       <c r="M21" s="1">
@@ -2416,38 +2504,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75">
+    <row r="22" spans="1:28">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="11">
-        <v>100</v>
-      </c>
-      <c r="C22" s="11">
-        <v>100</v>
-      </c>
-      <c r="D22" s="11">
-        <v>100</v>
-      </c>
-      <c r="E22" s="11">
-        <v>100</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="B22" s="9">
+        <v>100</v>
+      </c>
+      <c r="C22" s="9">
+        <v>100</v>
+      </c>
+      <c r="D22" s="9">
+        <v>100</v>
+      </c>
+      <c r="E22" s="9">
+        <v>100</v>
+      </c>
+      <c r="F22" s="12">
         <v>95</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>100</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>100</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="9">
         <v>86</v>
       </c>
       <c r="M22" s="1">
@@ -2459,42 +2547,42 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="15.75">
+      <c r="P22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11">
-        <v>100</v>
-      </c>
-      <c r="C23" s="11">
-        <v>100</v>
-      </c>
-      <c r="D23" s="11">
-        <v>100</v>
-      </c>
-      <c r="E23" s="11">
-        <v>100</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="B23" s="9">
+        <v>100</v>
+      </c>
+      <c r="C23" s="9">
+        <v>100</v>
+      </c>
+      <c r="D23" s="9">
+        <v>100</v>
+      </c>
+      <c r="E23" s="9">
+        <v>100</v>
+      </c>
+      <c r="F23" s="12">
         <v>95</v>
       </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>100</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="11">
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>100</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="9">
         <v>86</v>
       </c>
       <c r="M23" s="1">
@@ -2510,38 +2598,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75">
+    <row r="24" spans="1:28">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="11">
-        <v>100</v>
-      </c>
-      <c r="C24" s="11">
-        <v>100</v>
-      </c>
-      <c r="D24" s="11">
-        <v>100</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="B24" s="9">
+        <v>100</v>
+      </c>
+      <c r="C24" s="9">
+        <v>100</v>
+      </c>
+      <c r="D24" s="9">
+        <v>100</v>
+      </c>
+      <c r="E24" s="9">
         <v>95</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="12">
         <v>95</v>
       </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>100</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>100</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="9">
         <v>86</v>
       </c>
       <c r="M24" s="1">
@@ -2557,38 +2645,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75">
+    <row r="25" spans="1:28">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="11">
-        <v>100</v>
-      </c>
-      <c r="C25" s="11">
-        <v>100</v>
-      </c>
-      <c r="D25" s="11">
-        <v>100</v>
-      </c>
-      <c r="E25" s="11">
-        <v>100</v>
-      </c>
-      <c r="F25" s="15">
+      <c r="B25" s="9">
+        <v>100</v>
+      </c>
+      <c r="C25" s="9">
+        <v>100</v>
+      </c>
+      <c r="D25" s="9">
+        <v>100</v>
+      </c>
+      <c r="E25" s="9">
+        <v>100</v>
+      </c>
+      <c r="F25" s="12">
         <v>99</v>
       </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>100</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="11">
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>100</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="9">
         <v>86</v>
       </c>
       <c r="M25" s="1">
@@ -2604,38 +2692,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75">
+    <row r="26" spans="1:28">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="11">
-        <v>100</v>
-      </c>
-      <c r="C26" s="11">
-        <v>100</v>
-      </c>
-      <c r="D26" s="11">
-        <v>100</v>
-      </c>
-      <c r="E26" s="11">
-        <v>100</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="B26" s="9">
+        <v>100</v>
+      </c>
+      <c r="C26" s="9">
+        <v>100</v>
+      </c>
+      <c r="D26" s="9">
+        <v>100</v>
+      </c>
+      <c r="E26" s="9">
+        <v>100</v>
+      </c>
+      <c r="F26" s="12">
         <v>99</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>100</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="11">
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>100</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="9">
         <v>86</v>
       </c>
       <c r="M26" s="1">
@@ -2651,38 +2739,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75">
+    <row r="27" spans="1:28">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="11">
-        <v>100</v>
-      </c>
-      <c r="C27" s="11">
-        <v>100</v>
-      </c>
-      <c r="D27" s="11">
-        <v>100</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="B27" s="9">
+        <v>100</v>
+      </c>
+      <c r="C27" s="9">
+        <v>100</v>
+      </c>
+      <c r="D27" s="9">
+        <v>100</v>
+      </c>
+      <c r="E27" s="9">
         <v>90</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="12">
         <v>95</v>
       </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
-        <v>100</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>100</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="9">
         <v>86</v>
       </c>
       <c r="M27" s="1">
@@ -2698,35 +2786,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75">
+    <row r="28" spans="1:28">
       <c r="A28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="15" t="s">
+      <c r="B28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M28" s="1">
@@ -2742,38 +2830,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75">
+    <row r="29" spans="1:28">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>90</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>90</v>
       </c>
-      <c r="D29" s="11">
-        <v>100</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="D29" s="9">
+        <v>100</v>
+      </c>
+      <c r="E29" s="9">
         <v>80</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <v>80</v>
       </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15">
-        <v>100</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="11">
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>100</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="9">
         <v>86</v>
       </c>
       <c r="M29" s="1">
@@ -2789,38 +2877,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75">
+    <row r="30" spans="1:28">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>90</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>90</v>
       </c>
-      <c r="D30" s="11">
-        <v>100</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="D30" s="9">
+        <v>100</v>
+      </c>
+      <c r="E30" s="9">
         <v>80</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="12">
         <v>80</v>
       </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
-        <v>100</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="11">
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>100</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="9">
         <v>86</v>
       </c>
       <c r="M30" s="1">
@@ -2836,38 +2924,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75">
+    <row r="31" spans="1:28">
       <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>90</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="9">
         <v>90</v>
       </c>
-      <c r="D31" s="11">
-        <v>100</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="D31" s="9">
+        <v>100</v>
+      </c>
+      <c r="E31" s="9">
         <v>80</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="12">
         <v>80</v>
       </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-      <c r="H31" s="15">
-        <v>100</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="11">
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>100</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="9">
         <v>86</v>
       </c>
       <c r="M31" s="1">
@@ -2883,35 +2971,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75">
+    <row r="32" spans="1:28">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="15" t="s">
+      <c r="B32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M32" s="1">
@@ -2927,33 +3015,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75">
-      <c r="A33" s="6"/>
-      <c r="B33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33" s="15" t="s">
+    <row r="33" spans="1:19">
+      <c r="B33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M33" s="1">
@@ -2969,35 +3056,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75">
+    <row r="34" spans="1:19">
       <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="15" t="s">
+      <c r="B34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M34" s="1">
@@ -3013,35 +3100,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75">
+    <row r="35" spans="1:19">
       <c r="A35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" s="15" t="s">
+      <c r="B35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="12" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="1">
@@ -3056,36 +3143,39 @@
       <c r="P35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.75">
+      <c r="S35" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="15" t="s">
+      <c r="B36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>63</v>
       </c>
       <c r="M36" s="1">
@@ -3100,36 +3190,39 @@
       <c r="P36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.75">
+      <c r="S36" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="15" t="s">
+      <c r="B37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>63</v>
       </c>
       <c r="M37" s="1">
@@ -3144,34 +3237,36 @@
       <c r="P37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.75">
-      <c r="A38" s="6"/>
-      <c r="B38" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J38" s="15" t="s">
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="B38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>64</v>
       </c>
       <c r="M38" s="1">
@@ -3187,35 +3282,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75">
+    <row r="39" spans="1:19">
       <c r="A39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39" s="15" t="s">
+      <c r="B39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="12" t="s">
         <v>65</v>
       </c>
       <c r="M39" s="1">
@@ -3231,35 +3326,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75">
+    <row r="40" spans="1:19">
       <c r="A40" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" s="15" t="s">
+      <c r="B40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>63</v>
       </c>
       <c r="M40" s="1">
@@ -3275,35 +3370,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75">
+    <row r="41" spans="1:19">
       <c r="A41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="15" t="s">
+      <c r="B41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>63</v>
       </c>
       <c r="M41" s="1">
@@ -3319,35 +3414,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:19">
+      <c r="A42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" s="15" t="s">
+      <c r="B42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>63</v>
       </c>
       <c r="M42" s="1">
@@ -3363,13 +3458,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:19">
+      <c r="A44" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:19">
+      <c r="A45" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3433,15 +3528,16 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D12"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3449,17 +3545,23 @@
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:6" ht="18.75">
+      <c r="B1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>72</v>
       </c>
@@ -3467,7 +3569,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -3475,7 +3577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -3483,7 +3585,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>70</v>
       </c>
@@ -3491,12 +3593,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>73</v>
       </c>
@@ -3504,17 +3606,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="D12" s="3"/>
     </row>
   </sheetData>

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Niveles" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>edwin:</t>
         </r>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Iniciar la interaccion con el usuario final
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="99">
   <si>
     <t>Agenda</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>¿Qué pasa si ya tengo seleccionado el paquete, y aceptado por el cliente, pero a los dos dias alguien modifica el paquete? Se mantienen los servicios que tenia el paquete antes de ser modificado?</t>
+  </si>
+  <si>
+    <t>Al momento de crear el tentativo se crea el master, siempre y cuando tenga paquete seleccionado</t>
   </si>
 </sst>
 </file>
@@ -465,14 +471,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -824,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,9 +899,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,28 +908,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -967,6 +952,30 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,7 +1383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1435,12 +1444,12 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="26.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
@@ -1460,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1500,62 +1509,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="4" customFormat="1" ht="46.5">
-      <c r="A1" s="48"/>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="41"/>
+      <c r="C1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="11"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="S1" s="21"/>
-      <c r="U1" s="32"/>
+      <c r="U1" s="31"/>
       <c r="AD1" s="21"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1">
-      <c r="A2" s="49"/>
-      <c r="U2" s="33"/>
+      <c r="A2" s="42"/>
+      <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:30" ht="26.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42" t="s">
+      <c r="T3" s="36"/>
+      <c r="U3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="45" t="s">
+      <c r="V3" s="62"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="47" t="s">
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB3" s="15">
@@ -1565,74 +1574,74 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="34" customFormat="1" ht="18.75">
+    <row r="4" spans="1:30" s="33" customFormat="1" ht="18.75">
       <c r="A4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="54" t="s">
+      <c r="L4" s="43"/>
+      <c r="M4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="59" t="s">
+      <c r="R4" s="43"/>
+      <c r="S4" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="60" t="s">
+      <c r="T4" s="43"/>
+      <c r="U4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="63"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="56"/>
       <c r="Z4" s="13"/>
-      <c r="AB4" s="64" t="s">
+      <c r="AB4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2363,7 +2372,7 @@
       <c r="P18" s="1">
         <v>0</v>
       </c>
-      <c r="X18" s="31"/>
+      <c r="X18" s="30"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="6" t="s">
@@ -3534,10 +3543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3549,15 +3558,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3623,6 +3632,19 @@
     </row>
     <row r="12" spans="2:6">
       <c r="D12" s="3"/>
+    </row>
+    <row r="14" spans="2:6" ht="59.25" customHeight="1">
+      <c r="B14" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Niveles" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
   <si>
     <t>Agenda</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Al momento de crear el tentativo se crea el master, siempre y cuando tenga paquete seleccionado</t>
+  </si>
+  <si>
+    <t>REPORTES</t>
   </si>
 </sst>
 </file>
@@ -953,6 +956,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,9 +979,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1383,7 +1386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1394,7 +1397,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1444,12 +1447,12 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="26.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
@@ -1467,13 +1470,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1510,13 +1513,13 @@
   <sheetData>
     <row r="1" spans="1:30" s="4" customFormat="1" ht="46.5">
       <c r="A1" s="41"/>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="11"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
@@ -1530,35 +1533,35 @@
       <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:30" ht="26.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="5"/>
       <c r="S3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="36"/>
-      <c r="U3" s="61" t="s">
+      <c r="U3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="62"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="37"/>
       <c r="X3" s="38" t="s">
         <v>6</v>
@@ -3475,6 +3478,11 @@
     <row r="45" spans="1:19">
       <c r="A45" s="6" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3545,7 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3634,7 +3642,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="14" spans="2:6" ht="59.25" customHeight="1">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="58" t="s">
         <v>97</v>
       </c>
     </row>

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Niveles" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
   <si>
     <t>Agenda</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>REPORTES</t>
+  </si>
+  <si>
+    <t>Cuando cambia de paquete en edicion de la agenda , borrar los servicios del paquete y agregar el nuevo</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1472,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -3553,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3562,7 +3565,7 @@
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="94.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
@@ -3585,6 +3588,9 @@
       <c r="D2" t="s">
         <v>82</v>
       </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Niveles" sheetId="5" r:id="rId1"/>
     <sheet name="Tareas-Modulos" sheetId="3" r:id="rId2"/>
     <sheet name="Issues" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -56,14 +57,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="147">
   <si>
     <t>Agenda</t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
     <t>Front End</t>
   </si>
   <si>
@@ -359,13 +357,154 @@
   </si>
   <si>
     <t>Cuando cambia de paquete en edicion de la agenda , borrar los servicios del paquete y agregar el nuevo</t>
+  </si>
+  <si>
+    <t>eliminar servicio y descontar a los totales</t>
+  </si>
+  <si>
+    <t>Reporte Agenda mensual</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>Sistema Abrierto</t>
+  </si>
+  <si>
+    <t>Sistema abierto de manera inicial - posterior ir cerrando las areas atraves de validaciones, reglas, roles</t>
+  </si>
+  <si>
+    <t>Al editar se mantenga con el mismo Estatus tipo</t>
+  </si>
+  <si>
+    <t>Aplicación</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>rr1</t>
+  </si>
+  <si>
+    <t>rr2</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>u3</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Entidad</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e1,e2</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Gestor</t>
+  </si>
+  <si>
+    <t>Easy Pay</t>
+  </si>
+  <si>
+    <t>Reservis</t>
+  </si>
+  <si>
+    <t>Agente</t>
+  </si>
+  <si>
+    <t>Boda</t>
+  </si>
+  <si>
+    <t>Ejecutivo</t>
+  </si>
+  <si>
+    <t>r1,r2, r3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>rr3</t>
+  </si>
+  <si>
+    <t>rrr1</t>
+  </si>
+  <si>
+    <t>rrr2</t>
+  </si>
+  <si>
+    <t>rrr3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,8 +654,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +745,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,7 +1082,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,6 +1157,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1389,7 +1612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1400,7 +1623,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1431,33 +1654,38 @@
     </row>
     <row r="2" spans="2:7" ht="21">
       <c r="B2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="4" spans="2:7" ht="26.25">
-      <c r="B4" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
       <c r="D8" s="3"/>
@@ -1473,19 +1701,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
@@ -1511,207 +1739,207 @@
     <col min="25" max="25" width="2.7109375" customWidth="1"/>
     <col min="26" max="26" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="84" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="4" customFormat="1" ht="46.5">
-      <c r="A1" s="41"/>
-      <c r="C1" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="A1" s="40"/>
+      <c r="C1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="11"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="S1" s="21"/>
-      <c r="U1" s="31"/>
+      <c r="U1" s="30"/>
       <c r="AD1" s="21"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1">
-      <c r="A2" s="42"/>
-      <c r="U2" s="32"/>
+      <c r="A2" s="41"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:30" ht="26.25">
-      <c r="B3" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="B3" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="M3" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="62" t="s">
+      <c r="S3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="62"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="32" customFormat="1" ht="18.75">
+      <c r="A4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="42"/>
+      <c r="S4" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="42"/>
+      <c r="U4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="63"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB3" s="15">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="33" customFormat="1" ht="18.75">
-      <c r="A4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="43"/>
-      <c r="U4" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="55"/>
-      <c r="X4" s="56"/>
+      <c r="V4" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="54"/>
+      <c r="X4" s="55"/>
       <c r="Z4" s="13"/>
-      <c r="AB4" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="33" t="s">
-        <v>20</v>
+      <c r="AB4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="9"/>
       <c r="M5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="S5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W5" s="8"/>
       <c r="X5" s="1"/>
       <c r="AB5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1740,7 +1968,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -1770,24 +1998,24 @@
         <v>10</v>
       </c>
       <c r="AB6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="s">
         <v>11</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="9">
         <v>100</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="9">
         <v>90</v>
@@ -1802,10 +2030,10 @@
         <v>100</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="9">
         <v>86</v>
@@ -1817,7 +2045,7 @@
         <v>88</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P7" s="1">
         <v>25</v>
@@ -1827,21 +2055,21 @@
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="9">
         <v>100</v>
@@ -1865,10 +2093,10 @@
         <v>100</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="9">
         <v>86</v>
@@ -1880,73 +2108,76 @@
         <v>85</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P8" s="1">
         <v>50</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="9"/>
       <c r="M9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U9" s="1">
         <v>45</v>
       </c>
+      <c r="AC9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="9">
         <v>100</v>
@@ -1970,10 +2201,10 @@
         <v>100</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="9">
         <v>86</v>
@@ -1996,7 +2227,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="9">
         <v>100</v>
@@ -2020,10 +2251,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="9">
         <v>86</v>
@@ -2043,7 +2274,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="9">
         <v>100</v>
@@ -2067,10 +2298,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="9">
         <v>86</v>
@@ -2090,7 +2321,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="9">
         <v>100</v>
@@ -2114,10 +2345,10 @@
         <v>100</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="9">
         <v>86</v>
@@ -2140,7 +2371,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="9">
         <v>100</v>
@@ -2164,10 +2395,10 @@
         <v>100</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="9">
         <v>86</v>
@@ -2190,7 +2421,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9">
         <v>100</v>
@@ -2214,7 +2445,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
@@ -2240,34 +2471,34 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="9"/>
       <c r="M16" s="1">
@@ -2282,11 +2513,14 @@
       <c r="P16" s="1">
         <v>0</v>
       </c>
+      <c r="U16" s="1">
+        <v>68</v>
+      </c>
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9">
         <v>100</v>
@@ -2310,31 +2544,34 @@
         <v>100</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="9">
         <v>86</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P17" s="19">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="U17" s="1">
+        <v>78</v>
       </c>
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="9">
         <v>90</v>
@@ -2358,58 +2595,63 @@
         <v>100</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18" s="9">
         <v>86</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="U18" s="1">
+        <v>65</v>
+      </c>
+      <c r="X18" s="65" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="9"/>
       <c r="M19" s="1">
@@ -2427,7 +2669,7 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="9">
         <v>100</v>
@@ -2451,10 +2693,10 @@
         <v>100</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20" s="9">
         <v>86</v>
@@ -2474,7 +2716,7 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9">
         <v>100</v>
@@ -2498,10 +2740,10 @@
         <v>100</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="9">
         <v>86</v>
@@ -2521,7 +2763,7 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="9">
         <v>100</v>
@@ -2545,10 +2787,10 @@
         <v>100</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K22" s="9">
         <v>86</v>
@@ -2568,7 +2810,7 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="9">
         <v>100</v>
@@ -2592,10 +2834,10 @@
         <v>100</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="9">
         <v>86</v>
@@ -2615,7 +2857,7 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="9">
         <v>100</v>
@@ -2639,10 +2881,10 @@
         <v>100</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24" s="9">
         <v>86</v>
@@ -2662,7 +2904,7 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="9">
         <v>100</v>
@@ -2686,10 +2928,10 @@
         <v>100</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" s="9">
         <v>86</v>
@@ -2709,7 +2951,7 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="9">
         <v>100</v>
@@ -2733,10 +2975,10 @@
         <v>100</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" s="9">
         <v>86</v>
@@ -2756,7 +2998,7 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="9">
         <v>100</v>
@@ -2780,10 +3022,10 @@
         <v>100</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="9">
         <v>86</v>
@@ -2803,34 +3045,34 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -2847,7 +3089,7 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="9">
         <v>90</v>
@@ -2871,10 +3113,10 @@
         <v>100</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29" s="9">
         <v>86</v>
@@ -2894,7 +3136,7 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="9">
         <v>90</v>
@@ -2918,10 +3160,10 @@
         <v>100</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30" s="9">
         <v>86</v>
@@ -2941,7 +3183,7 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="9">
         <v>90</v>
@@ -2965,10 +3207,10 @@
         <v>100</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31" s="9">
         <v>86</v>
@@ -2988,34 +3230,34 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -3032,31 +3274,31 @@
     </row>
     <row r="33" spans="1:19">
       <c r="B33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -3073,34 +3315,34 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -3117,34 +3359,34 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M35" s="1">
         <v>90</v>
@@ -3164,34 +3406,34 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -3211,34 +3453,34 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M37" s="1">
         <v>90</v>
@@ -3258,31 +3500,31 @@
     </row>
     <row r="38" spans="1:19">
       <c r="B38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -3299,34 +3541,34 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -3343,34 +3585,34 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M40" s="1">
         <v>70</v>
@@ -3387,34 +3629,34 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M41" s="1">
         <v>80</v>
@@ -3431,34 +3673,34 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -3475,17 +3717,22 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3554,102 +3801,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F17"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="94.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
-      <c r="B1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33" t="s">
-        <v>37</v>
+      <c r="B1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="D12" s="3"/>
     </row>
     <row r="14" spans="2:6" ht="59.25" customHeight="1">
-      <c r="B14" s="58" t="s">
-        <v>97</v>
+      <c r="B14" s="57" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -3657,7 +3907,516 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="26.25">
+      <c r="A1" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="D1" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="70"/>
+      <c r="G1" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="D7" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="D8" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="D9" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="D10" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="J17" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="M17" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17" s="75"/>
+      <c r="P17" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q17" s="75"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="79"/>
+      <c r="J18" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="M20" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="M21" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="78"/>
+      <c r="J37" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="K37" s="74"/>
+      <c r="M37" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="75"/>
+      <c r="P37" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q37" s="75"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="79"/>
+      <c r="J38" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="K38" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="M38" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="N38" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q38" s="72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="M39" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="N39" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="P39" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39" s="72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="J40" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="M40" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="N40" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="P40" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q40" s="72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="M41" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="N41" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="P41" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q41" s="72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="M42" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="N42" s="72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="M43" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="N43" s="72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="M44" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="N44" s="72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="M45" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="N45" s="72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="M46" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="N46" s="72" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547"/>
   </bookViews>
   <sheets>
     <sheet name="Niveles" sheetId="5" r:id="rId1"/>
@@ -371,9 +371,6 @@
     <t>INICIO</t>
   </si>
   <si>
-    <t>Sistema Abrierto</t>
-  </si>
-  <si>
     <t>Sistema abierto de manera inicial - posterior ir cerrando las areas atraves de validaciones, reglas, roles</t>
   </si>
   <si>
@@ -498,13 +495,16 @@
   </si>
   <si>
     <t>rrr3</t>
+  </si>
+  <si>
+    <t>Sistema Abierto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,6 +658,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1013,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1138,27 +1146,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1206,6 +1193,28 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,7 +1621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1622,16 +1631,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1673,18 +1682,18 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="26.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="29"/>
     </row>
     <row r="7" spans="2:7">
       <c r="F7" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -1707,7 +1716,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1744,13 +1753,13 @@
   <sheetData>
     <row r="1" spans="1:30" s="4" customFormat="1" ht="46.5">
       <c r="A1" s="40"/>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
       <c r="H1" s="11"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
@@ -1764,35 +1773,35 @@
       <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:30" ht="26.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="5"/>
       <c r="S3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="35"/>
-      <c r="U3" s="61" t="s">
+      <c r="U3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="62"/>
+      <c r="V3" s="83"/>
       <c r="W3" s="36"/>
       <c r="X3" s="37" t="s">
         <v>5</v>
@@ -2172,7 +2181,7 @@
         <v>45</v>
       </c>
       <c r="AC9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -2618,7 +2627,7 @@
       <c r="U18" s="1">
         <v>65</v>
       </c>
-      <c r="X18" s="65" t="s">
+      <c r="X18" s="58" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3912,7 +3921,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3925,7 +3934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3940,274 +3949,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="D1" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="G1" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="D1" s="69" t="s">
+      <c r="B2" s="1"/>
+      <c r="D2" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="G1" s="69" t="s">
+      <c r="E2" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I2" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="D7" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="D8" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="D9" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="D10" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="84" t="s">
+      <c r="B17" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="71"/>
+      <c r="J17" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="67"/>
+      <c r="M17" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" s="68"/>
+      <c r="P17" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="68"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="72"/>
+      <c r="J18" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="74" t="s">
+      <c r="C19" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="68" t="s">
+      <c r="P19" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="65" t="s">
         <v>126</v>
-      </c>
-      <c r="I2" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="P3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>132</v>
-      </c>
-      <c r="R3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="D4" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>136</v>
-      </c>
-      <c r="R4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="D6" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="D7" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="D8" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="D9" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="D10" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="78"/>
-      <c r="J17" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="74"/>
-      <c r="M17" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="N17" s="75"/>
-      <c r="P17" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17" s="75"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="79"/>
-      <c r="J18" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N18" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="P18" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q18" s="72" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N19" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q19" s="72" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4217,126 +4226,126 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="M20" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N20" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="72" t="s">
-        <v>128</v>
+      <c r="M20" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="65" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="M21" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="68" t="s">
+      <c r="M21" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="64" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="71" t="s">
+      <c r="C37" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="71"/>
+      <c r="J37" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="K37" s="67"/>
+      <c r="M37" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" s="68"/>
+      <c r="P37" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37" s="68"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="72"/>
+      <c r="J38" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="K38" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="M38" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="N38" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q38" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="71" t="s">
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="J37" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" s="74"/>
-      <c r="M37" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="N37" s="75"/>
-      <c r="P37" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q37" s="75"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="68" t="s">
+      <c r="J39" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="79"/>
-      <c r="J38" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="K38" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="M38" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="N38" s="68" t="s">
+      <c r="M39" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="N39" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="P38" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q38" s="72" t="s">
+      <c r="P39" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39" s="65" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="J39" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="K39" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="M39" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="N39" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="P39" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q39" s="72" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4346,77 +4355,77 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="J40" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="K40" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="M40" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="N40" s="68" t="s">
+      <c r="J40" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="K40" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="M40" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="N40" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q40" s="65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="M41" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="N41" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="P40" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q40" s="72" t="s">
+      <c r="P41" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q41" s="65" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="M41" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="N41" s="68" t="s">
+    <row r="42" spans="1:17">
+      <c r="M42" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="N42" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="P41" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q41" s="72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="M42" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="N42" s="72" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="M43" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="N43" s="72" t="s">
+      <c r="M43" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="N43" s="65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="M44" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="N44" s="65" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
-      <c r="M44" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="N44" s="72" t="s">
+    <row r="45" spans="1:17">
+      <c r="M45" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="N45" s="65" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="M45" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="N45" s="72" t="s">
+    <row r="46" spans="1:17">
+      <c r="M46" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="N46" s="65" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="M46" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="N46" s="72" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="4575" tabRatio="547"/>
   </bookViews>
   <sheets>
-    <sheet name="Niveles" sheetId="5" r:id="rId1"/>
-    <sheet name="Tareas-Modulos" sheetId="3" r:id="rId2"/>
-    <sheet name="Issues" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
+    <sheet name="Metapasarelax" sheetId="8" r:id="rId1"/>
+    <sheet name="Niveles" sheetId="5" r:id="rId2"/>
+    <sheet name="Tareas-Modulos" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -56,8 +57,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>edwin</author>
+  </authors>
+  <commentList>
+    <comment ref="X18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>edwin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Iniciar la interaccion con el usuario final
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="163">
   <si>
     <t>Agenda</t>
   </si>
@@ -498,6 +534,54 @@
   </si>
   <si>
     <t>Sistema Abierto</t>
+  </si>
+  <si>
+    <t>Proyecto Metapasarela</t>
+  </si>
+  <si>
+    <t>Sidebar</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Localizacion</t>
+  </si>
+  <si>
+    <t>Afiliacion</t>
+  </si>
+  <si>
+    <t>Pasarela</t>
+  </si>
+  <si>
+    <t>ReadPago</t>
+  </si>
+  <si>
+    <t>UsuarioEntidad</t>
+  </si>
+  <si>
+    <t>GrupoPais</t>
+  </si>
+  <si>
+    <t>Transaccion</t>
+  </si>
+  <si>
+    <t>TransacccionEstado</t>
+  </si>
+  <si>
+    <t>Regla</t>
+  </si>
+  <si>
+    <t>NoPage</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1277,14 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,18 +1296,219 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1629,9 +1918,1523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" style="7" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.7109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.7109375" customWidth="1"/>
+    <col min="26" max="26" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="93" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" ht="46.5">
+      <c r="A1" s="40"/>
+      <c r="C1" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="S1" s="21"/>
+      <c r="U1" s="30"/>
+      <c r="AD1" s="21"/>
+    </row>
+    <row r="2" spans="1:30" s="10" customFormat="1">
+      <c r="A2" s="41"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:30" ht="26.25">
+      <c r="B3" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="85"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="32" customFormat="1" ht="18.75">
+      <c r="A4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="42"/>
+      <c r="S4" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="42"/>
+      <c r="U4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="54"/>
+      <c r="X4" s="55"/>
+      <c r="Z4" s="13"/>
+      <c r="AB4" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="B5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="M5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="S5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="8"/>
+      <c r="X5" s="1"/>
+      <c r="AB5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="9">
+        <v>99</v>
+      </c>
+      <c r="C6" s="9">
+        <v>99</v>
+      </c>
+      <c r="D6" s="9">
+        <v>99</v>
+      </c>
+      <c r="E6" s="9">
+        <v>99</v>
+      </c>
+      <c r="F6" s="12">
+        <v>95</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>90</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="M6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>90</v>
+      </c>
+      <c r="U6" s="1">
+        <v>90</v>
+      </c>
+      <c r="V6" s="1">
+        <v>90</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="9">
+        <v>99</v>
+      </c>
+      <c r="C7" s="9">
+        <v>99</v>
+      </c>
+      <c r="D7" s="9">
+        <v>99</v>
+      </c>
+      <c r="E7" s="9">
+        <v>99</v>
+      </c>
+      <c r="F7" s="12">
+        <v>90</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>90</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="8"/>
+      <c r="V7" s="1"/>
+      <c r="AB7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="9">
+        <v>99</v>
+      </c>
+      <c r="C8" s="9">
+        <v>99</v>
+      </c>
+      <c r="D8" s="9">
+        <v>99</v>
+      </c>
+      <c r="E8" s="9">
+        <v>99</v>
+      </c>
+      <c r="F8" s="12">
+        <v>90</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>90</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="M8" s="1">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1">
+        <v>70</v>
+      </c>
+      <c r="O8" s="1">
+        <v>70</v>
+      </c>
+      <c r="P8" s="1">
+        <v>60</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="8"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="9">
+        <v>99</v>
+      </c>
+      <c r="C9" s="9">
+        <v>99</v>
+      </c>
+      <c r="D9" s="9">
+        <v>99</v>
+      </c>
+      <c r="E9" s="9">
+        <v>99</v>
+      </c>
+      <c r="F9" s="12">
+        <v>90</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>90</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="M9" s="1">
+        <v>70</v>
+      </c>
+      <c r="N9" s="1">
+        <v>70</v>
+      </c>
+      <c r="O9" s="1">
+        <v>70</v>
+      </c>
+      <c r="P9" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="9">
+        <v>99</v>
+      </c>
+      <c r="C10" s="9">
+        <v>99</v>
+      </c>
+      <c r="D10" s="9">
+        <v>99</v>
+      </c>
+      <c r="E10" s="9">
+        <v>60</v>
+      </c>
+      <c r="F10" s="12">
+        <v>90</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>90</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="9">
+        <v>99</v>
+      </c>
+      <c r="C11" s="9">
+        <v>99</v>
+      </c>
+      <c r="D11" s="9">
+        <v>99</v>
+      </c>
+      <c r="E11" s="9">
+        <v>70</v>
+      </c>
+      <c r="F11" s="12">
+        <v>90</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>90</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="9">
+        <v>99</v>
+      </c>
+      <c r="C12" s="9">
+        <v>99</v>
+      </c>
+      <c r="D12" s="9">
+        <v>99</v>
+      </c>
+      <c r="E12" s="9">
+        <v>60</v>
+      </c>
+      <c r="F12" s="12">
+        <v>90</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>90</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="9">
+        <v>99</v>
+      </c>
+      <c r="C13" s="9">
+        <v>99</v>
+      </c>
+      <c r="D13" s="9">
+        <v>99</v>
+      </c>
+      <c r="E13" s="9">
+        <v>99</v>
+      </c>
+      <c r="F13" s="12">
+        <v>90</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>90</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="9">
+        <v>99</v>
+      </c>
+      <c r="C14" s="9">
+        <v>99</v>
+      </c>
+      <c r="D14" s="9">
+        <v>99</v>
+      </c>
+      <c r="E14" s="9">
+        <v>99</v>
+      </c>
+      <c r="F14" s="12">
+        <v>90</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>90</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="9">
+        <v>99</v>
+      </c>
+      <c r="C15" s="9">
+        <v>99</v>
+      </c>
+      <c r="D15" s="9">
+        <v>99</v>
+      </c>
+      <c r="E15" s="9">
+        <v>99</v>
+      </c>
+      <c r="F15" s="12">
+        <v>90</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>90</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="9">
+        <v>99</v>
+      </c>
+      <c r="C16" s="9">
+        <v>99</v>
+      </c>
+      <c r="D16" s="9">
+        <v>99</v>
+      </c>
+      <c r="E16" s="9">
+        <v>99</v>
+      </c>
+      <c r="F16" s="12">
+        <v>90</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>90</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="M16" s="1">
+        <v>60</v>
+      </c>
+      <c r="N16" s="1">
+        <v>60</v>
+      </c>
+      <c r="O16" s="1">
+        <v>70</v>
+      </c>
+      <c r="P16" s="1">
+        <v>65</v>
+      </c>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9">
+        <v>99</v>
+      </c>
+      <c r="C17" s="9">
+        <v>99</v>
+      </c>
+      <c r="D17" s="9">
+        <v>99</v>
+      </c>
+      <c r="E17" s="9">
+        <v>99</v>
+      </c>
+      <c r="F17" s="12">
+        <v>90</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>90</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="9">
+        <v>99</v>
+      </c>
+      <c r="C18" s="9">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9">
+        <v>99</v>
+      </c>
+      <c r="E18" s="9">
+        <v>60</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>90</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="9">
+        <v>99</v>
+      </c>
+      <c r="C19" s="9">
+        <v>99</v>
+      </c>
+      <c r="D19" s="9">
+        <v>99</v>
+      </c>
+      <c r="E19" s="9">
+        <v>60</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>90</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="9">
+        <v>99</v>
+      </c>
+      <c r="C20" s="9">
+        <v>99</v>
+      </c>
+      <c r="D20" s="9">
+        <v>99</v>
+      </c>
+      <c r="E20" s="9">
+        <v>99</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>90</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="12">
+        <v>90</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>90</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="M21" s="1">
+        <v>80</v>
+      </c>
+      <c r="N21" s="1">
+        <v>85</v>
+      </c>
+      <c r="O21" s="1">
+        <v>85</v>
+      </c>
+      <c r="P21" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="M22" s="1">
+        <v>70</v>
+      </c>
+      <c r="N22" s="1">
+        <v>65</v>
+      </c>
+      <c r="O22" s="1">
+        <v>65</v>
+      </c>
+      <c r="P22" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="M23" s="1">
+        <v>60</v>
+      </c>
+      <c r="N23" s="1">
+        <v>45</v>
+      </c>
+      <c r="O23" s="1">
+        <v>65</v>
+      </c>
+      <c r="P23" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="5"/>
+      <c r="B25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9">
+        <f>SUM(B6:B20)/15</f>
+        <v>99</v>
+      </c>
+      <c r="C29" s="9">
+        <f>SUM(C6:C20)/15</f>
+        <v>99</v>
+      </c>
+      <c r="D29" s="9">
+        <f>SUM(D6:D20)/15</f>
+        <v>99</v>
+      </c>
+      <c r="E29" s="9">
+        <f>SUM(E6:E20)/15</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="F29" s="9">
+        <f>SUM(F6:F22)/16</f>
+        <v>73.4375</v>
+      </c>
+      <c r="G29" s="9">
+        <f>SUM(G6:G22)/16</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <f>SUM(H6:H21)/16</f>
+        <v>90</v>
+      </c>
+      <c r="I29" s="9">
+        <f>SUM(I18:I20)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="5"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="5"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="5"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="5"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="U3:V3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="U5:V26 M5:P26 B5:J26 S5:S26">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="na">
+      <formula>NOT(ISERROR(SEARCH("na",B5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
+      <formula>86</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="between">
+      <formula>71</formula>
+      <formula>85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="between">
+      <formula>0</formula>
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1682,13 +3485,13 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="26.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="29"/>
     </row>
     <row r="7" spans="2:7">
@@ -1708,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD48"/>
   <sheetViews>
@@ -1773,35 +3576,35 @@
       <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:30" ht="26.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="5"/>
       <c r="S3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="35"/>
-      <c r="U3" s="82" t="s">
+      <c r="U3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="83"/>
+      <c r="V3" s="85"/>
       <c r="W3" s="36"/>
       <c r="X3" s="37" t="s">
         <v>5</v>
@@ -3752,52 +5555,52 @@
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:J42">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:P42">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",M5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S41 U5:V41">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",S5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
@@ -3808,7 +5611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F19"/>
   <sheetViews>
@@ -3930,11 +5733,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/ScriptSQL/Tabla de Actividades.xlsx
+++ b/ScriptSQL/Tabla de Actividades.xlsx
@@ -1303,171 +1303,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1910,7 +1746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1921,10 +1757,10 @@
   <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2201,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="14" t="s">
         <v>10</v>
@@ -3408,18 +3244,18 @@
     <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="U5:V26 M5:P26 B5:J26 S5:S26">
-    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
@@ -3435,7 +3271,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3519,7 +3355,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -5555,52 +5391,52 @@
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:J42">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:P42">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",M5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S41 U5:V41">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="na">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="na">
       <formula>NOT(ISERROR(SEARCH("na",S5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>86</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>71</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>0</formula>
       <formula>70</formula>
     </cfRule>
